--- a/chess-dot-com/Chess.xlsx
+++ b/chess-dot-com/Chess.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="17700" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="17700" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Intermediate" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="Advanced" sheetId="6" r:id="rId2"/>
     <sheet name="Studies" sheetId="3" r:id="rId3"/>
     <sheet name="General" sheetId="1" r:id="rId4"/>
     <sheet name="Lessons Index" sheetId="4" r:id="rId5"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
   <si>
     <t>Piece</t>
   </si>
@@ -227,6 +227,27 @@
   </si>
   <si>
     <t>Openings</t>
+  </si>
+  <si>
+    <t>Advanced: Openings</t>
+  </si>
+  <si>
+    <t>Learn with the Four Knights</t>
+  </si>
+  <si>
+    <t>Learn with the Ruy Lopez</t>
+  </si>
+  <si>
+    <t>The Scandinavian Defense &amp; Bad Queen Play</t>
+  </si>
+  <si>
+    <t>Introduction to Opening Gambits</t>
+  </si>
+  <si>
+    <t>Open Positions</t>
+  </si>
+  <si>
+    <t>Se</t>
   </si>
 </sst>
 </file>
@@ -339,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -366,6 +387,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2900,8 +2922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3086,12 +3108,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3451,16 +3486,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" style="15" customWidth="1"/>
-    <col min="2" max="3" width="44" style="15" customWidth="1"/>
+    <col min="2" max="2" width="44" style="15" customWidth="1"/>
+    <col min="3" max="3" width="58" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
@@ -3527,7 +3563,62 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C11" s="15" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C20" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C21" s="15" t="s">
         <v>64</v>
       </c>
     </row>
